--- a/thresholds/IGCSE/environmental-management/environmental-management-thresholds.xlsx
+++ b/thresholds/IGCSE/environmental-management/environmental-management-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>date</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -528,6 +533,11 @@
           <t>June 2022</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>environmental-management</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -567,6 +577,11 @@
           <t>June 2022</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>environmental-management</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -606,6 +621,11 @@
           <t>June 2022</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>environmental-management</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -645,6 +665,11 @@
           <t>June 2022</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>environmental-management</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -684,6 +709,11 @@
           <t>November 2022</t>
         </is>
       </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>environmental-management</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -723,6 +753,11 @@
           <t>November 2022</t>
         </is>
       </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>environmental-management</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -762,6 +797,11 @@
           <t>November 2022</t>
         </is>
       </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>environmental-management</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -801,6 +841,11 @@
           <t>November 2023</t>
         </is>
       </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>environmental-management</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -840,6 +885,11 @@
           <t>November 2023</t>
         </is>
       </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>environmental-management</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -879,6 +929,11 @@
           <t>November 2023</t>
         </is>
       </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>environmental-management</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -918,6 +973,11 @@
           <t>March 2022</t>
         </is>
       </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>environmental-management</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -957,6 +1017,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>environmental-management</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -996,6 +1061,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>environmental-management</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1035,6 +1105,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>environmental-management</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1074,6 +1149,11 @@
           <t>June 2024</t>
         </is>
       </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>environmental-management</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1113,6 +1193,11 @@
           <t>June 2024</t>
         </is>
       </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>environmental-management</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1152,6 +1237,11 @@
           <t>June 2024</t>
         </is>
       </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>environmental-management</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1191,6 +1281,11 @@
           <t>June 2025</t>
         </is>
       </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>environmental-management</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1230,6 +1325,11 @@
           <t>June 2025</t>
         </is>
       </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>environmental-management</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1269,6 +1369,11 @@
           <t>June 2025</t>
         </is>
       </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>environmental-management</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1308,6 +1413,11 @@
           <t>March 2023</t>
         </is>
       </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>environmental-management</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1347,6 +1457,11 @@
           <t>March 2024</t>
         </is>
       </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>environmental-management</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1386,6 +1501,11 @@
           <t>March 2025</t>
         </is>
       </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>environmental-management</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1425,6 +1545,7 @@
           <t>November 2024</t>
         </is>
       </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1464,6 +1585,7 @@
           <t>November 2024</t>
         </is>
       </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1503,6 +1625,7 @@
           <t>November 2024</t>
         </is>
       </c>
+      <c r="L27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/thresholds/IGCSE/environmental-management/environmental-management-thresholds.xlsx
+++ b/thresholds/IGCSE/environmental-management/environmental-management-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,60 +489,52 @@
           <t>date</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>subject</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>P1 50</t>
+          <t>X 11,21</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="C2" t="n">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="D2" t="n">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="E2" t="n">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="F2" t="n">
+        <v>73</v>
+      </c>
+      <c r="G2" t="n">
+        <v>61</v>
+      </c>
+      <c r="H2" t="n">
         <v>49</v>
       </c>
-      <c r="G2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H2" t="n">
-        <v>31</v>
-      </c>
       <c r="I2" t="n">
-        <v>22</v>
-      </c>
-      <c r="J2" t="n">
-        <v>13</v>
+        <v>37</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>June 2022</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>environmental-management</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>X 11,21</t>
+          <t>Y 12,22</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -552,41 +544,38 @@
         <v>112</v>
       </c>
       <c r="D3" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F3" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G3" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H3" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I3" t="n">
-        <v>37</v>
-      </c>
-      <c r="J3" t="n">
-        <v>25</v>
+        <v>34</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>June 2022</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>environmental-management</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Y 12,22</t>
+          <t>Z 13,23</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -596,217 +585,202 @@
         <v>112</v>
       </c>
       <c r="D4" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E4" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F4" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G4" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H4" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I4" t="n">
-        <v>34</v>
-      </c>
-      <c r="J4" t="n">
-        <v>22</v>
+        <v>37</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>June 2022</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>environmental-management</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Z 13,23</t>
+          <t>X 11,21</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>160</v>
       </c>
       <c r="C5" t="n">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D5" t="n">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E5" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F5" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G5" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H5" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I5" t="n">
-        <v>37</v>
-      </c>
-      <c r="J5" t="n">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>June 2022</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>environmental-management</t>
+          <t>November 2022</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>X 11,21</t>
+          <t>Y 12,22</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>160</v>
       </c>
       <c r="C6" t="n">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D6" t="n">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E6" t="n">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F6" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="G6" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H6" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I6" t="n">
-        <v>32</v>
-      </c>
-      <c r="J6" t="n">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>November 2022</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>environmental-management</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Y 12,22</t>
+          <t>Z 13,23</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>160</v>
       </c>
       <c r="C7" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D7" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E7" t="n">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F7" t="n">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G7" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H7" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I7" t="n">
-        <v>39</v>
-      </c>
-      <c r="J7" t="n">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>November 2022</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>environmental-management</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Z 13,23</t>
+          <t>X 11,21</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>160</v>
       </c>
       <c r="C8" t="n">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D8" t="n">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E8" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G8" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H8" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I8" t="n">
-        <v>33</v>
-      </c>
-      <c r="J8" t="n">
-        <v>18</v>
+        <v>37</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>November 2022</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>environmental-management</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>X 11,21</t>
+          <t>Y 12,22</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -825,32 +799,29 @@
         <v>84</v>
       </c>
       <c r="G9" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H9" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I9" t="n">
-        <v>37</v>
-      </c>
-      <c r="J9" t="n">
-        <v>22</v>
+        <v>42</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>November 2023</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>environmental-management</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Y 12,22</t>
+          <t>Z 13,23</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -877,61 +848,55 @@
       <c r="I10" t="n">
         <v>42</v>
       </c>
-      <c r="J10" t="n">
-        <v>28</v>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>November 2023</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>environmental-management</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Z 13,23</t>
+          <t>X 11,21</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>160</v>
       </c>
       <c r="C11" t="n">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D11" t="n">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E11" t="n">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F11" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="G11" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H11" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I11" t="n">
-        <v>42</v>
-      </c>
-      <c r="J11" t="n">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>November 2023</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>environmental-management</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
@@ -942,47 +907,44 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="C12" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D12" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E12" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F12" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G12" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H12" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I12" t="n">
-        <v>47</v>
-      </c>
-      <c r="J12" t="n">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>March 2022</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>environmental-management</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>X 11,21</t>
+          <t>Z 13,23</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1009,112 +971,103 @@
       <c r="I13" t="n">
         <v>36</v>
       </c>
-      <c r="J13" t="n">
-        <v>24</v>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>environmental-management</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Y 12,22</t>
+          <t>X 11,21</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>160</v>
       </c>
       <c r="C14" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D14" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E14" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G14" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H14" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I14" t="n">
         <v>36</v>
       </c>
-      <c r="J14" t="n">
-        <v>24</v>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>June 2023</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>environmental-management</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Z 13,23</t>
+          <t>Y 12,22</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>160</v>
       </c>
       <c r="C15" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D15" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E15" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F15" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G15" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="n">
-        <v>36</v>
-      </c>
-      <c r="J15" t="n">
-        <v>24</v>
+        <v>35</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>June 2023</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>environmental-management</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>X 11,21</t>
+          <t>Z 13,23</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1141,112 +1094,103 @@
       <c r="I16" t="n">
         <v>36</v>
       </c>
-      <c r="J16" t="n">
-        <v>23</v>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>environmental-management</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Y 12,22</t>
+          <t>X 11,21</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>160</v>
       </c>
       <c r="C17" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D17" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E17" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F17" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G17" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H17" t="n">
         <v>47</v>
       </c>
       <c r="I17" t="n">
-        <v>35</v>
-      </c>
-      <c r="J17" t="n">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>June 2024</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>environmental-management</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Z 13,23</t>
+          <t>Y 12,22</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>160</v>
       </c>
       <c r="C18" t="n">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D18" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E18" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F18" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G18" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H18" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I18" t="n">
-        <v>36</v>
-      </c>
-      <c r="J18" t="n">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>June 2024</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>environmental-management</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>X 11,21</t>
+          <t>Z 13,23</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1273,17 +1217,14 @@
       <c r="I19" t="n">
         <v>36</v>
       </c>
-      <c r="J19" t="n">
-        <v>25</v>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>June 2025</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>environmental-management</t>
         </is>
       </c>
     </row>
@@ -1297,81 +1238,75 @@
         <v>160</v>
       </c>
       <c r="C20" t="n">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D20" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E20" t="n">
         <v>92</v>
       </c>
       <c r="F20" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G20" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H20" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I20" t="n">
-        <v>40</v>
-      </c>
-      <c r="J20" t="n">
-        <v>28</v>
+        <v>47</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>June 2025</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>environmental-management</t>
+          <t>March 2023</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Z 13,23</t>
+          <t>Y 12,22</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>160</v>
       </c>
       <c r="C21" t="n">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D21" t="n">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E21" t="n">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F21" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G21" t="n">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="H21" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I21" t="n">
-        <v>36</v>
-      </c>
-      <c r="J21" t="n">
-        <v>25</v>
+        <v>48</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>June 2025</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>environmental-management</t>
+          <t>March 2024</t>
         </is>
       </c>
     </row>
@@ -1397,69 +1332,63 @@
         <v>78</v>
       </c>
       <c r="G22" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H22" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I22" t="n">
-        <v>47</v>
-      </c>
-      <c r="J22" t="n">
-        <v>37</v>
+        <v>45</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>March 2023</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>environmental-management</t>
+          <t>March 2025</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Y 12,22</t>
+          <t>X 11,21</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>160</v>
       </c>
       <c r="C23" t="n">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="D23" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E23" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F23" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G23" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H23" t="n">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="I23" t="n">
-        <v>48</v>
-      </c>
-      <c r="J23" t="n">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>March 2024</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>environmental-management</t>
+          <t>November 2024</t>
         </is>
       </c>
     </row>
@@ -1473,44 +1402,41 @@
         <v>160</v>
       </c>
       <c r="C24" t="n">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D24" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E24" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F24" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G24" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H24" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I24" t="n">
-        <v>45</v>
-      </c>
-      <c r="J24" t="n">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>March 2025</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>environmental-management</t>
+          <t>November 2024</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>X 11,21</t>
+          <t>Z 13,23</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1520,112 +1446,33 @@
         <v>129</v>
       </c>
       <c r="D25" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E25" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F25" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G25" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H25" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I25" t="n">
-        <v>36</v>
-      </c>
-      <c r="J25" t="n">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>November 2024</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Y 12,22</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>160</v>
-      </c>
-      <c r="C26" t="n">
-        <v>127</v>
-      </c>
-      <c r="D26" t="n">
-        <v>110</v>
-      </c>
-      <c r="E26" t="n">
-        <v>93</v>
-      </c>
-      <c r="F26" t="n">
-        <v>76</v>
-      </c>
-      <c r="G26" t="n">
-        <v>63</v>
-      </c>
-      <c r="H26" t="n">
-        <v>50</v>
-      </c>
-      <c r="I26" t="n">
-        <v>36</v>
-      </c>
-      <c r="J26" t="n">
-        <v>22</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>Z 13,23</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>160</v>
-      </c>
-      <c r="C27" t="n">
-        <v>129</v>
-      </c>
-      <c r="D27" t="n">
-        <v>112</v>
-      </c>
-      <c r="E27" t="n">
-        <v>95</v>
-      </c>
-      <c r="F27" t="n">
-        <v>78</v>
-      </c>
-      <c r="G27" t="n">
-        <v>65</v>
-      </c>
-      <c r="H27" t="n">
-        <v>52</v>
-      </c>
-      <c r="I27" t="n">
-        <v>38</v>
-      </c>
-      <c r="J27" t="n">
-        <v>24</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/thresholds/IGCSE/environmental-management/environmental-management-thresholds.xlsx
+++ b/thresholds/IGCSE/environmental-management/environmental-management-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,36 +493,36 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>X 11,21</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="D2" t="n">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="F2" t="n">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="G2" t="n">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I2" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -534,7 +534,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Y 12,22</t>
+          <t>X 11,21</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -544,26 +544,26 @@
         <v>112</v>
       </c>
       <c r="D3" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E3" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F3" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G3" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H3" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I3" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -575,7 +575,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Z 13,23</t>
+          <t>Y 12,22</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -585,26 +585,26 @@
         <v>112</v>
       </c>
       <c r="D4" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E4" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F4" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G4" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H4" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I4" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -616,77 +616,77 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>X 11,21</t>
+          <t>Z 13,23</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>160</v>
       </c>
       <c r="C5" t="n">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D5" t="n">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E5" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F5" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G5" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H5" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I5" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>November 2022</t>
+          <t>June 2022</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Y 12,22</t>
+          <t>X 11,21</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>160</v>
       </c>
       <c r="C6" t="n">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D6" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E6" t="n">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F6" t="n">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G6" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="H6" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I6" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -698,36 +698,36 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Z 13,23</t>
+          <t>Y 12,22</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>160</v>
       </c>
       <c r="C7" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D7" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E7" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F7" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G7" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H7" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I7" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -739,48 +739,48 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>X 11,21</t>
+          <t>Z 13,23</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>160</v>
       </c>
       <c r="C8" t="n">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D8" t="n">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E8" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F8" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G8" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H8" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I8" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2022</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Y 12,22</t>
+          <t>X 11,21</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -799,17 +799,17 @@
         <v>84</v>
       </c>
       <c r="G9" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H9" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I9" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -821,7 +821,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Z 13,23</t>
+          <t>Y 12,22</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -862,41 +862,41 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>X 11,21</t>
+          <t>Z 13,23</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>160</v>
       </c>
       <c r="C11" t="n">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="D11" t="n">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E11" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F11" t="n">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="G11" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H11" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I11" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
@@ -907,44 +907,44 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E12" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F12" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G12" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H12" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="I12" t="n">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>March 2022</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Z 13,23</t>
+          <t>X 11,21</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -985,89 +985,89 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>X 11,21</t>
+          <t>Y 12,22</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>160</v>
       </c>
       <c r="C14" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D14" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E14" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F14" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G14" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H14" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I14" t="n">
         <v>36</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Y 12,22</t>
+          <t>Z 13,23</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>160</v>
       </c>
       <c r="C15" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D15" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E15" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F15" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G15" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Z 13,23</t>
+          <t>X 11,21</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1108,89 +1108,89 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>X 11,21</t>
+          <t>Y 12,22</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>160</v>
       </c>
       <c r="C17" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D17" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E17" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F17" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G17" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H17" t="n">
         <v>47</v>
       </c>
       <c r="I17" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Y 12,22</t>
+          <t>Z 13,23</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>160</v>
       </c>
       <c r="C18" t="n">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D18" t="n">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E18" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F18" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G18" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H18" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I18" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Z 13,23</t>
+          <t>X 11,21</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1238,75 +1238,75 @@
         <v>160</v>
       </c>
       <c r="C20" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D20" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E20" t="n">
         <v>92</v>
       </c>
       <c r="F20" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G20" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H20" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I20" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>March 2023</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Y 12,22</t>
+          <t>Z 13,23</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>160</v>
       </c>
       <c r="C21" t="n">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D21" t="n">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E21" t="n">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F21" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G21" t="n">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H21" t="n">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="I21" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>March 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
@@ -1332,63 +1332,63 @@
         <v>78</v>
       </c>
       <c r="G22" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>March 2025</t>
+          <t>March 2023</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>X 11,21</t>
+          <t>Y 12,22</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>160</v>
       </c>
       <c r="C23" t="n">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D23" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E23" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F23" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G23" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H23" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I23" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>March 2024</t>
         </is>
       </c>
     </row>
@@ -1402,41 +1402,41 @@
         <v>160</v>
       </c>
       <c r="C24" t="n">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D24" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E24" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F24" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G24" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H24" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I24" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>March 2025</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Z 13,23</t>
+          <t>X 11,21</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1446,29 +1446,111 @@
         <v>129</v>
       </c>
       <c r="D25" t="n">
+        <v>110</v>
+      </c>
+      <c r="E25" t="n">
+        <v>91</v>
+      </c>
+      <c r="F25" t="n">
+        <v>73</v>
+      </c>
+      <c r="G25" t="n">
+        <v>61</v>
+      </c>
+      <c r="H25" t="n">
+        <v>49</v>
+      </c>
+      <c r="I25" t="n">
+        <v>36</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Y 12,22</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>160</v>
+      </c>
+      <c r="C26" t="n">
+        <v>127</v>
+      </c>
+      <c r="D26" t="n">
+        <v>110</v>
+      </c>
+      <c r="E26" t="n">
+        <v>93</v>
+      </c>
+      <c r="F26" t="n">
+        <v>76</v>
+      </c>
+      <c r="G26" t="n">
+        <v>63</v>
+      </c>
+      <c r="H26" t="n">
+        <v>50</v>
+      </c>
+      <c r="I26" t="n">
+        <v>36</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Z 13,23</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>160</v>
+      </c>
+      <c r="C27" t="n">
+        <v>129</v>
+      </c>
+      <c r="D27" t="n">
         <v>112</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E27" t="n">
         <v>95</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F27" t="n">
         <v>78</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G27" t="n">
         <v>65</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H27" t="n">
         <v>52</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I27" t="n">
         <v>38</v>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>November 2024</t>
         </is>
